--- a/CFA_data_mkda.xlsx
+++ b/CFA_data_mkda.xlsx
@@ -5,24 +5,22 @@
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xpsy/Documents/Brain_workshop/CCA_meta/CFA_meta/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xpsy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADAC949-09C0-6341-9497-12FE713CC187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057E1E08-90C6-4643-9AEC-95D3B07F9395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="680" windowWidth="24140" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="2" r:id="rId1"/>
-    <sheet name="Hyper" sheetId="6" r:id="rId2"/>
-    <sheet name="Hypo" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="42">
   <si>
     <t>y</t>
   </si>
@@ -1156,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7840,6746 +7838,4 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B46AF0A-216B-774D-B418-86DE3E66DCC5}">
-  <dimension ref="A1:I183"/>
-  <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>-32</v>
-      </c>
-      <c r="B2" s="1">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>-42</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>-22</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>-44</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>-34</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-46</v>
-      </c>
-      <c r="C6" s="1">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>-24</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-58</v>
-      </c>
-      <c r="C7" s="1">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
-        <v>61</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>-22</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-68</v>
-      </c>
-      <c r="C8" s="1">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>-50</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-56</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>-26</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-28</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>-10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>-16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1">
-        <v>-4</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-64</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1">
-        <v>36</v>
-      </c>
-      <c r="B14" s="1">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4">
-        <v>61</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-64</v>
-      </c>
-      <c r="C17" s="1">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4">
-        <v>61</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1">
-        <v>-68</v>
-      </c>
-      <c r="C18" s="1">
-        <v>-12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4">
-        <v>61</v>
-      </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>-42</v>
-      </c>
-      <c r="B19" s="1">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="4">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>36</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4">
-        <v>65</v>
-      </c>
-      <c r="F20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1">
-        <v>-86</v>
-      </c>
-      <c r="C22" s="1">
-        <v>-8</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="4">
-        <v>36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-70</v>
-      </c>
-      <c r="C23" s="1">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="4">
-        <v>36</v>
-      </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1">
-        <v>38</v>
-      </c>
-      <c r="B24" s="1">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="4">
-        <v>36</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1">
-        <v>32</v>
-      </c>
-      <c r="C25" s="1">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="4">
-        <v>40</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1">
-        <v>-60</v>
-      </c>
-      <c r="B26" s="1">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="4">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1">
-        <v>36</v>
-      </c>
-      <c r="C27" s="1">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="4">
-        <v>40</v>
-      </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1">
-        <v>60</v>
-      </c>
-      <c r="B28" s="1">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="4">
-        <v>40</v>
-      </c>
-      <c r="F28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1">
-        <v>12</v>
-      </c>
-      <c r="B29" s="1">
-        <v>-30</v>
-      </c>
-      <c r="C29" s="1">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="4">
-        <v>40</v>
-      </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1">
-        <v>30</v>
-      </c>
-      <c r="B30" s="1">
-        <v>-28</v>
-      </c>
-      <c r="C30" s="1">
-        <v>68</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="4">
-        <v>40</v>
-      </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1">
-        <v>-60</v>
-      </c>
-      <c r="B31" s="1">
-        <v>-12</v>
-      </c>
-      <c r="C31" s="1">
-        <v>16</v>
-      </c>
-      <c r="D31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="4">
-        <v>40</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1">
-        <v>-8</v>
-      </c>
-      <c r="B32" s="1">
-        <v>-34</v>
-      </c>
-      <c r="C32" s="1">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="4">
-        <v>40</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1">
-        <v>-56</v>
-      </c>
-      <c r="B33" s="1">
-        <v>-32</v>
-      </c>
-      <c r="C33" s="1">
-        <v>18</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="4">
-        <v>40</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1">
-        <v>-66</v>
-      </c>
-      <c r="B34" s="1">
-        <v>-48</v>
-      </c>
-      <c r="C34" s="1">
-        <v>-12</v>
-      </c>
-      <c r="D34" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="4">
-        <v>40</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1">
-        <v>-58</v>
-      </c>
-      <c r="B35" s="1">
-        <v>-60</v>
-      </c>
-      <c r="C35" s="1">
-        <v>-12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="4">
-        <v>40</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="1">
-        <v>-52</v>
-      </c>
-      <c r="B36" s="1">
-        <v>-34</v>
-      </c>
-      <c r="C36" s="1">
-        <v>-18</v>
-      </c>
-      <c r="D36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="4">
-        <v>40</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="1">
-        <v>-16</v>
-      </c>
-      <c r="B37" s="1">
-        <v>-70</v>
-      </c>
-      <c r="C37" s="1">
-        <v>46</v>
-      </c>
-      <c r="D37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="4">
-        <v>40</v>
-      </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1">
-        <v>-74</v>
-      </c>
-      <c r="C38" s="1">
-        <v>48</v>
-      </c>
-      <c r="D38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="4">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1">
-        <v>-10</v>
-      </c>
-      <c r="B39" s="1">
-        <v>-52</v>
-      </c>
-      <c r="C39" s="1">
-        <v>66</v>
-      </c>
-      <c r="D39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="4">
-        <v>40</v>
-      </c>
-      <c r="F39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1">
-        <v>-32</v>
-      </c>
-      <c r="B40" s="1">
-        <v>-82</v>
-      </c>
-      <c r="C40" s="1">
-        <v>32</v>
-      </c>
-      <c r="D40" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="4">
-        <v>40</v>
-      </c>
-      <c r="F40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1">
-        <v>46</v>
-      </c>
-      <c r="B41" s="1">
-        <v>-82</v>
-      </c>
-      <c r="C41" s="1">
-        <v>-14</v>
-      </c>
-      <c r="D41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="4">
-        <v>40</v>
-      </c>
-      <c r="F41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="1">
-        <v>2</v>
-      </c>
-      <c r="B42" s="1">
-        <v>-96</v>
-      </c>
-      <c r="C42" s="1">
-        <v>-6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="4">
-        <v>40</v>
-      </c>
-      <c r="F42" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1">
-        <v>-40</v>
-      </c>
-      <c r="B43" s="1">
-        <v>-84</v>
-      </c>
-      <c r="C43" s="1">
-        <v>-22</v>
-      </c>
-      <c r="D43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="4">
-        <v>40</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1">
-        <v>-2</v>
-      </c>
-      <c r="B44" s="1">
-        <v>58</v>
-      </c>
-      <c r="C44" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="4">
-        <v>24</v>
-      </c>
-      <c r="F44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1">
-        <v>2</v>
-      </c>
-      <c r="B45" s="1">
-        <v>60</v>
-      </c>
-      <c r="C45" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="4">
-        <v>24</v>
-      </c>
-      <c r="F45" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1">
-        <v>-32</v>
-      </c>
-      <c r="B46" s="1">
-        <v>36</v>
-      </c>
-      <c r="C46" s="1">
-        <v>-10</v>
-      </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="4">
-        <v>24</v>
-      </c>
-      <c r="F46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1">
-        <v>-16</v>
-      </c>
-      <c r="B47" s="1">
-        <v>14</v>
-      </c>
-      <c r="C47" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="4">
-        <v>24</v>
-      </c>
-      <c r="F47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1">
-        <v>-16</v>
-      </c>
-      <c r="B48" s="1">
-        <v>14</v>
-      </c>
-      <c r="C48" s="1">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="4">
-        <v>24</v>
-      </c>
-      <c r="F48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1">
-        <v>40</v>
-      </c>
-      <c r="B49" s="1">
-        <v>8</v>
-      </c>
-      <c r="C49" s="1">
-        <v>30</v>
-      </c>
-      <c r="D49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="4">
-        <v>20</v>
-      </c>
-      <c r="F49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1">
-        <v>28</v>
-      </c>
-      <c r="B50" s="1">
-        <v>-8</v>
-      </c>
-      <c r="C50" s="1">
-        <v>56</v>
-      </c>
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="4">
-        <v>20</v>
-      </c>
-      <c r="F50" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="1">
-        <v>51</v>
-      </c>
-      <c r="B51" s="1">
-        <v>20</v>
-      </c>
-      <c r="C51" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="4">
-        <v>20</v>
-      </c>
-      <c r="F51" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1">
-        <v>14</v>
-      </c>
-      <c r="B52" s="1">
-        <v>10</v>
-      </c>
-      <c r="C52" s="1">
-        <v>38</v>
-      </c>
-      <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="4">
-        <v>20</v>
-      </c>
-      <c r="F52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1">
-        <v>-38</v>
-      </c>
-      <c r="B53" s="1">
-        <v>32</v>
-      </c>
-      <c r="C53" s="1">
-        <v>12</v>
-      </c>
-      <c r="D53" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="4">
-        <v>20</v>
-      </c>
-      <c r="F53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1">
-        <v>-26</v>
-      </c>
-      <c r="B54" s="1">
-        <v>-4</v>
-      </c>
-      <c r="C54" s="1">
-        <v>56</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="4">
-        <v>20</v>
-      </c>
-      <c r="F54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I54" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1">
-        <v>-32</v>
-      </c>
-      <c r="B55" s="1">
-        <v>8</v>
-      </c>
-      <c r="C55" s="1">
-        <v>36</v>
-      </c>
-      <c r="D55" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="4">
-        <v>20</v>
-      </c>
-      <c r="F55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1">
-        <v>-44</v>
-      </c>
-      <c r="B56" s="1">
-        <v>8</v>
-      </c>
-      <c r="C56" s="1">
-        <v>24</v>
-      </c>
-      <c r="D56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="4">
-        <v>20</v>
-      </c>
-      <c r="F56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1">
-        <v>-52</v>
-      </c>
-      <c r="B57" s="1">
-        <v>-58</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="4">
-        <v>20</v>
-      </c>
-      <c r="F57" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1">
-        <v>43</v>
-      </c>
-      <c r="B58" s="1">
-        <v>-29</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="4">
-        <v>20</v>
-      </c>
-      <c r="F58" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="1">
-        <v>-59</v>
-      </c>
-      <c r="B59" s="1">
-        <v>-38</v>
-      </c>
-      <c r="C59" s="1">
-        <v>19</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="4">
-        <v>20</v>
-      </c>
-      <c r="F59" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1">
-        <v>44</v>
-      </c>
-      <c r="B60" s="1">
-        <v>-40</v>
-      </c>
-      <c r="C60" s="1">
-        <v>44</v>
-      </c>
-      <c r="D60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="4">
-        <v>20</v>
-      </c>
-      <c r="F60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1">
-        <v>20</v>
-      </c>
-      <c r="B61" s="1">
-        <v>-56</v>
-      </c>
-      <c r="C61" s="1">
-        <v>44</v>
-      </c>
-      <c r="D61" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="4">
-        <v>20</v>
-      </c>
-      <c r="F61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1">
-        <v>-43</v>
-      </c>
-      <c r="B62" s="1">
-        <v>-41</v>
-      </c>
-      <c r="C62" s="1">
-        <v>38</v>
-      </c>
-      <c r="D62" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="4">
-        <v>20</v>
-      </c>
-      <c r="F62" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1">
-        <v>-27</v>
-      </c>
-      <c r="B63" s="1">
-        <v>-50</v>
-      </c>
-      <c r="C63" s="1">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="4">
-        <v>20</v>
-      </c>
-      <c r="F63" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I63" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="1">
-        <v>46</v>
-      </c>
-      <c r="B64" s="1">
-        <v>-44</v>
-      </c>
-      <c r="C64" s="1">
-        <v>-10</v>
-      </c>
-      <c r="D64" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="4">
-        <v>20</v>
-      </c>
-      <c r="F64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="1">
-        <v>-28</v>
-      </c>
-      <c r="B65" s="1">
-        <v>-80</v>
-      </c>
-      <c r="C65" s="1">
-        <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="4">
-        <v>20</v>
-      </c>
-      <c r="F65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="1">
-        <v>10</v>
-      </c>
-      <c r="B66" s="1">
-        <v>-16</v>
-      </c>
-      <c r="C66" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D66" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="4">
-        <v>20</v>
-      </c>
-      <c r="F66" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="1">
-        <v>-22</v>
-      </c>
-      <c r="B67" s="1">
-        <v>-10</v>
-      </c>
-      <c r="C67" s="1">
-        <v>8</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="4">
-        <v>20</v>
-      </c>
-      <c r="F67" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I67" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="1">
-        <v>-8</v>
-      </c>
-      <c r="B68" s="1">
-        <v>-20</v>
-      </c>
-      <c r="C68" s="1">
-        <v>-6</v>
-      </c>
-      <c r="D68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="4">
-        <v>20</v>
-      </c>
-      <c r="F68" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I68" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="1">
-        <v>-28</v>
-      </c>
-      <c r="B69" s="1">
-        <v>-68</v>
-      </c>
-      <c r="C69" s="1">
-        <v>36</v>
-      </c>
-      <c r="D69" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="2">
-        <v>40</v>
-      </c>
-      <c r="F69" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I69" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="1">
-        <v>-12</v>
-      </c>
-      <c r="B70" s="1">
-        <v>-68</v>
-      </c>
-      <c r="C70" s="1">
-        <v>39</v>
-      </c>
-      <c r="D70" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="2">
-        <v>40</v>
-      </c>
-      <c r="F70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="1">
-        <v>-36</v>
-      </c>
-      <c r="B71" s="1">
-        <v>-46</v>
-      </c>
-      <c r="C71" s="1">
-        <v>36</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="2">
-        <v>40</v>
-      </c>
-      <c r="F71" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I71" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="1">
-        <v>37</v>
-      </c>
-      <c r="B72" s="1">
-        <v>-49</v>
-      </c>
-      <c r="C72" s="1">
-        <v>36</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" s="2">
-        <v>40</v>
-      </c>
-      <c r="F72" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I72" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1">
-        <v>37</v>
-      </c>
-      <c r="B73" s="1">
-        <v>-68</v>
-      </c>
-      <c r="C73" s="1">
-        <v>36</v>
-      </c>
-      <c r="D73" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" s="2">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I73" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1">
-        <v>37</v>
-      </c>
-      <c r="B74" s="1">
-        <v>-85</v>
-      </c>
-      <c r="C74" s="1">
-        <v>9</v>
-      </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="2">
-        <v>40</v>
-      </c>
-      <c r="F74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="1">
-        <v>39</v>
-      </c>
-      <c r="B75" s="1">
-        <v>12</v>
-      </c>
-      <c r="C75" s="1">
-        <v>29</v>
-      </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="2">
-        <v>40</v>
-      </c>
-      <c r="F75" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I75" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="1">
-        <v>47</v>
-      </c>
-      <c r="B76" s="1">
-        <v>5</v>
-      </c>
-      <c r="C76" s="1">
-        <v>37</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="2">
-        <v>40</v>
-      </c>
-      <c r="F76" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="1">
-        <v>-43</v>
-      </c>
-      <c r="B77" s="1">
-        <v>0</v>
-      </c>
-      <c r="C77" s="1">
-        <v>32</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="2">
-        <v>40</v>
-      </c>
-      <c r="F77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="1">
-        <v>-23</v>
-      </c>
-      <c r="B78" s="1">
-        <v>-44</v>
-      </c>
-      <c r="C78" s="1">
-        <v>-8</v>
-      </c>
-      <c r="D78" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" s="2">
-        <v>40</v>
-      </c>
-      <c r="F78" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I78" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="1">
-        <v>-27</v>
-      </c>
-      <c r="B79" s="1">
-        <v>-61</v>
-      </c>
-      <c r="C79" s="1">
-        <v>-21</v>
-      </c>
-      <c r="D79" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" s="2">
-        <v>40</v>
-      </c>
-      <c r="F79" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I79" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="1">
-        <v>-30</v>
-      </c>
-      <c r="B80" s="1">
-        <v>-41</v>
-      </c>
-      <c r="C80" s="1">
-        <v>-17</v>
-      </c>
-      <c r="D80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="2">
-        <v>40</v>
-      </c>
-      <c r="F80" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="1">
-        <v>56</v>
-      </c>
-      <c r="B81" s="1">
-        <v>-61</v>
-      </c>
-      <c r="C81" s="1">
-        <v>-7</v>
-      </c>
-      <c r="D81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="2">
-        <v>40</v>
-      </c>
-      <c r="F81" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I81" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="1">
-        <v>43</v>
-      </c>
-      <c r="B82" s="1">
-        <v>-54</v>
-      </c>
-      <c r="C82" s="1">
-        <v>-20</v>
-      </c>
-      <c r="D82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="2">
-        <v>40</v>
-      </c>
-      <c r="F82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="1">
-        <v>47</v>
-      </c>
-      <c r="B83" s="1">
-        <v>-26</v>
-      </c>
-      <c r="C83" s="1">
-        <v>28</v>
-      </c>
-      <c r="D83" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" s="2">
-        <v>40</v>
-      </c>
-      <c r="F83" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I83" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="1">
-        <v>37</v>
-      </c>
-      <c r="B84" s="1">
-        <v>-3</v>
-      </c>
-      <c r="C84" s="1">
-        <v>61</v>
-      </c>
-      <c r="D84" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" s="2">
-        <v>40</v>
-      </c>
-      <c r="F84" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I84" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="1">
-        <v>-15</v>
-      </c>
-      <c r="B85" s="1">
-        <v>-45</v>
-      </c>
-      <c r="C85" s="1">
-        <v>-12</v>
-      </c>
-      <c r="D85" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="2">
-        <v>40</v>
-      </c>
-      <c r="F85" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I85" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="1">
-        <v>-11</v>
-      </c>
-      <c r="B86" s="1">
-        <v>-62</v>
-      </c>
-      <c r="C86" s="1">
-        <v>16</v>
-      </c>
-      <c r="D86" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="2">
-        <v>40</v>
-      </c>
-      <c r="F86" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I86" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="1">
-        <v>7</v>
-      </c>
-      <c r="B87" s="1">
-        <v>-25</v>
-      </c>
-      <c r="C87" s="1">
-        <v>-8</v>
-      </c>
-      <c r="D87" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="2">
-        <v>40</v>
-      </c>
-      <c r="F87" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I87" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="1">
-        <v>38</v>
-      </c>
-      <c r="B88" s="1">
-        <v>-9</v>
-      </c>
-      <c r="C88" s="1">
-        <v>16</v>
-      </c>
-      <c r="D88" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="2">
-        <v>40</v>
-      </c>
-      <c r="F88" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I88" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1">
-        <v>27</v>
-      </c>
-      <c r="B89" s="1">
-        <v>10</v>
-      </c>
-      <c r="C89" s="1">
-        <v>12</v>
-      </c>
-      <c r="D89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="2">
-        <v>40</v>
-      </c>
-      <c r="F89" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I89" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="1">
-        <v>30</v>
-      </c>
-      <c r="B90" s="1">
-        <v>20</v>
-      </c>
-      <c r="C90" s="1">
-        <v>-5</v>
-      </c>
-      <c r="D90" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="2">
-        <v>40</v>
-      </c>
-      <c r="F90" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I90" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="1">
-        <v>-23</v>
-      </c>
-      <c r="B91" s="1">
-        <v>16</v>
-      </c>
-      <c r="C91" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="2">
-        <v>40</v>
-      </c>
-      <c r="F91" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I91" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="1">
-        <v>-35</v>
-      </c>
-      <c r="B92" s="1">
-        <v>19</v>
-      </c>
-      <c r="C92" s="1">
-        <v>-9</v>
-      </c>
-      <c r="D92" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" s="2">
-        <v>40</v>
-      </c>
-      <c r="F92" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I92" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="1">
-        <v>-46</v>
-      </c>
-      <c r="B93" s="1">
-        <v>0</v>
-      </c>
-      <c r="C93" s="1">
-        <v>3</v>
-      </c>
-      <c r="D93" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93" s="2">
-        <v>40</v>
-      </c>
-      <c r="F93" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I93" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="1">
-        <v>-36</v>
-      </c>
-      <c r="B94" s="1">
-        <v>-77</v>
-      </c>
-      <c r="C94" s="1">
-        <v>-20</v>
-      </c>
-      <c r="D94" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="2">
-        <v>40</v>
-      </c>
-      <c r="F94" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I94" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="1">
-        <v>-54</v>
-      </c>
-      <c r="B95" s="1">
-        <v>19</v>
-      </c>
-      <c r="C95" s="1">
-        <v>23</v>
-      </c>
-      <c r="D95" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="2">
-        <v>40</v>
-      </c>
-      <c r="F95" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I95" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1">
-        <v>50</v>
-      </c>
-      <c r="B96" s="1">
-        <v>-77</v>
-      </c>
-      <c r="C96" s="1">
-        <v>-16</v>
-      </c>
-      <c r="D96" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" s="2">
-        <v>40</v>
-      </c>
-      <c r="F96" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I96" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="1">
-        <v>45</v>
-      </c>
-      <c r="B97" s="1">
-        <v>-69</v>
-      </c>
-      <c r="C97" s="1">
-        <v>-16</v>
-      </c>
-      <c r="D97" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" s="2">
-        <v>40</v>
-      </c>
-      <c r="F97" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I97" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="1">
-        <v>45</v>
-      </c>
-      <c r="B98" s="1">
-        <v>-66</v>
-      </c>
-      <c r="C98" s="1">
-        <v>-25</v>
-      </c>
-      <c r="D98" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="2">
-        <v>40</v>
-      </c>
-      <c r="F98" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I98" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="1">
-        <v>33</v>
-      </c>
-      <c r="B99" s="1">
-        <v>-36</v>
-      </c>
-      <c r="C99" s="1">
-        <v>48</v>
-      </c>
-      <c r="D99" t="s">
-        <v>19</v>
-      </c>
-      <c r="E99" s="2">
-        <v>40</v>
-      </c>
-      <c r="F99" t="s">
-        <v>6</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I99" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="1">
-        <v>-21</v>
-      </c>
-      <c r="B100" s="1">
-        <v>-76</v>
-      </c>
-      <c r="C100" s="1">
-        <v>-20</v>
-      </c>
-      <c r="D100" t="s">
-        <v>39</v>
-      </c>
-      <c r="E100" s="2">
-        <v>79</v>
-      </c>
-      <c r="F100" t="s">
-        <v>6</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I100" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="1">
-        <v>-6</v>
-      </c>
-      <c r="B101" s="1">
-        <v>-67</v>
-      </c>
-      <c r="C101" s="1">
-        <v>13</v>
-      </c>
-      <c r="D101" t="s">
-        <v>39</v>
-      </c>
-      <c r="E101" s="2">
-        <v>79</v>
-      </c>
-      <c r="F101" t="s">
-        <v>6</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I101" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="1">
-        <v>-6</v>
-      </c>
-      <c r="B102" s="1">
-        <v>-46</v>
-      </c>
-      <c r="C102" s="1">
-        <v>22</v>
-      </c>
-      <c r="D102" t="s">
-        <v>40</v>
-      </c>
-      <c r="E102" s="2">
-        <v>79</v>
-      </c>
-      <c r="F102" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I102" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="A103" s="1">
-        <v>-12</v>
-      </c>
-      <c r="B103" s="1">
-        <v>-52</v>
-      </c>
-      <c r="C103" s="1">
-        <v>-44</v>
-      </c>
-      <c r="D103" t="s">
-        <v>40</v>
-      </c>
-      <c r="E103" s="2">
-        <v>79</v>
-      </c>
-      <c r="F103" t="s">
-        <v>6</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I103" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
-      <c r="A104" s="1">
-        <v>9</v>
-      </c>
-      <c r="B104" s="1">
-        <v>-55</v>
-      </c>
-      <c r="C104" s="1">
-        <v>-44</v>
-      </c>
-      <c r="D104" t="s">
-        <v>40</v>
-      </c>
-      <c r="E104" s="2">
-        <v>79</v>
-      </c>
-      <c r="F104" t="s">
-        <v>6</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I104" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105">
-        <v>9</v>
-      </c>
-      <c r="B105">
-        <v>-67</v>
-      </c>
-      <c r="C105">
-        <v>-11</v>
-      </c>
-      <c r="D105" t="s">
-        <v>40</v>
-      </c>
-      <c r="E105" s="2">
-        <v>79</v>
-      </c>
-      <c r="F105" t="s">
-        <v>6</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I105" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
-      <c r="A106">
-        <v>24</v>
-      </c>
-      <c r="B106">
-        <v>-76</v>
-      </c>
-      <c r="C106">
-        <v>-17</v>
-      </c>
-      <c r="D106" t="s">
-        <v>40</v>
-      </c>
-      <c r="E106" s="2">
-        <v>79</v>
-      </c>
-      <c r="F106" t="s">
-        <v>6</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I106" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="A107">
-        <v>3</v>
-      </c>
-      <c r="B107">
-        <v>-4</v>
-      </c>
-      <c r="C107">
-        <v>10</v>
-      </c>
-      <c r="D107" t="s">
-        <v>40</v>
-      </c>
-      <c r="E107" s="2">
-        <v>79</v>
-      </c>
-      <c r="F107" t="s">
-        <v>6</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I107" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
-      <c r="A108">
-        <v>18</v>
-      </c>
-      <c r="B108">
-        <v>-4</v>
-      </c>
-      <c r="C108">
-        <v>22</v>
-      </c>
-      <c r="D108" t="s">
-        <v>40</v>
-      </c>
-      <c r="E108" s="2">
-        <v>79</v>
-      </c>
-      <c r="F108" t="s">
-        <v>6</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I108" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
-      <c r="A109">
-        <v>8</v>
-      </c>
-      <c r="B109">
-        <v>17</v>
-      </c>
-      <c r="C109">
-        <v>61</v>
-      </c>
-      <c r="D109" t="s">
-        <v>40</v>
-      </c>
-      <c r="E109" s="2">
-        <v>79</v>
-      </c>
-      <c r="F109" t="s">
-        <v>6</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I109" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110">
-        <v>37</v>
-      </c>
-      <c r="B110">
-        <v>-3</v>
-      </c>
-      <c r="C110">
-        <v>61</v>
-      </c>
-      <c r="D110" t="s">
-        <v>40</v>
-      </c>
-      <c r="E110" s="2">
-        <v>79</v>
-      </c>
-      <c r="F110" t="s">
-        <v>6</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I110" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111">
-        <v>38</v>
-      </c>
-      <c r="B111">
-        <v>25</v>
-      </c>
-      <c r="C111">
-        <v>-1</v>
-      </c>
-      <c r="D111" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111" s="2">
-        <v>79</v>
-      </c>
-      <c r="F111" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I111" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112">
-        <v>11</v>
-      </c>
-      <c r="B112">
-        <v>-58</v>
-      </c>
-      <c r="C112">
-        <v>51</v>
-      </c>
-      <c r="D112" t="s">
-        <v>40</v>
-      </c>
-      <c r="E112" s="2">
-        <v>79</v>
-      </c>
-      <c r="F112" t="s">
-        <v>6</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I112" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113">
-        <v>50</v>
-      </c>
-      <c r="B113">
-        <v>-48</v>
-      </c>
-      <c r="C113">
-        <v>34</v>
-      </c>
-      <c r="D113" t="s">
-        <v>40</v>
-      </c>
-      <c r="E113" s="2">
-        <v>79</v>
-      </c>
-      <c r="F113" t="s">
-        <v>6</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I113" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114">
-        <v>38</v>
-      </c>
-      <c r="B114">
-        <v>-76</v>
-      </c>
-      <c r="C114">
-        <v>28</v>
-      </c>
-      <c r="D114" t="s">
-        <v>40</v>
-      </c>
-      <c r="E114" s="2">
-        <v>79</v>
-      </c>
-      <c r="F114" t="s">
-        <v>6</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I114" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115">
-        <v>9</v>
-      </c>
-      <c r="B115">
-        <v>25</v>
-      </c>
-      <c r="C115">
-        <v>28</v>
-      </c>
-      <c r="D115" t="s">
-        <v>40</v>
-      </c>
-      <c r="E115" s="2">
-        <v>79</v>
-      </c>
-      <c r="F115" t="s">
-        <v>6</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I115" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116">
-        <v>-12</v>
-      </c>
-      <c r="B116">
-        <v>-76</v>
-      </c>
-      <c r="C116">
-        <v>-14</v>
-      </c>
-      <c r="D116" t="s">
-        <v>40</v>
-      </c>
-      <c r="E116" s="2">
-        <v>79</v>
-      </c>
-      <c r="F116" t="s">
-        <v>6</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I116" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117">
-        <v>-12</v>
-      </c>
-      <c r="B117">
-        <v>-10</v>
-      </c>
-      <c r="C117">
-        <v>19</v>
-      </c>
-      <c r="D117" t="s">
-        <v>40</v>
-      </c>
-      <c r="E117" s="2">
-        <v>79</v>
-      </c>
-      <c r="F117" t="s">
-        <v>6</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I117" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118">
-        <v>-6</v>
-      </c>
-      <c r="B118">
-        <v>17</v>
-      </c>
-      <c r="C118">
-        <v>57</v>
-      </c>
-      <c r="D118" t="s">
-        <v>40</v>
-      </c>
-      <c r="E118" s="2">
-        <v>79</v>
-      </c>
-      <c r="F118" t="s">
-        <v>6</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I118" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
-      <c r="A119">
-        <v>-36</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119">
-        <v>61</v>
-      </c>
-      <c r="D119" t="s">
-        <v>40</v>
-      </c>
-      <c r="E119" s="2">
-        <v>79</v>
-      </c>
-      <c r="F119" t="s">
-        <v>6</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I119" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120">
-        <v>-47</v>
-      </c>
-      <c r="B120">
-        <v>13</v>
-      </c>
-      <c r="C120">
-        <v>46</v>
-      </c>
-      <c r="D120" t="s">
-        <v>40</v>
-      </c>
-      <c r="E120" s="2">
-        <v>79</v>
-      </c>
-      <c r="F120" t="s">
-        <v>6</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I120" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121">
-        <v>-2</v>
-      </c>
-      <c r="B121">
-        <v>-57</v>
-      </c>
-      <c r="C121">
-        <v>51</v>
-      </c>
-      <c r="D121" t="s">
-        <v>40</v>
-      </c>
-      <c r="E121" s="2">
-        <v>79</v>
-      </c>
-      <c r="F121" t="s">
-        <v>6</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I121" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122">
-        <v>-49</v>
-      </c>
-      <c r="B122">
-        <v>-58</v>
-      </c>
-      <c r="C122">
-        <v>34</v>
-      </c>
-      <c r="D122" t="s">
-        <v>40</v>
-      </c>
-      <c r="E122" s="2">
-        <v>79</v>
-      </c>
-      <c r="F122" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I122" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123">
-        <v>-29</v>
-      </c>
-      <c r="B123">
-        <v>-79</v>
-      </c>
-      <c r="C123">
-        <v>28</v>
-      </c>
-      <c r="D123" t="s">
-        <v>40</v>
-      </c>
-      <c r="E123" s="2">
-        <v>79</v>
-      </c>
-      <c r="F123" t="s">
-        <v>6</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I123" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124">
-        <v>-8</v>
-      </c>
-      <c r="B124">
-        <v>-22</v>
-      </c>
-      <c r="C124">
-        <v>38</v>
-      </c>
-      <c r="D124" t="s">
-        <v>40</v>
-      </c>
-      <c r="E124" s="2">
-        <v>79</v>
-      </c>
-      <c r="F124" t="s">
-        <v>6</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I124" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
-      <c r="A125">
-        <v>-51</v>
-      </c>
-      <c r="B125">
-        <v>17</v>
-      </c>
-      <c r="C125">
-        <v>25</v>
-      </c>
-      <c r="D125" t="s">
-        <v>40</v>
-      </c>
-      <c r="E125" s="2">
-        <v>79</v>
-      </c>
-      <c r="F125" t="s">
-        <v>6</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I125" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126">
-        <v>-27</v>
-      </c>
-      <c r="B126">
-        <v>29</v>
-      </c>
-      <c r="C126">
-        <v>-2</v>
-      </c>
-      <c r="D126" t="s">
-        <v>40</v>
-      </c>
-      <c r="E126" s="2">
-        <v>79</v>
-      </c>
-      <c r="F126" t="s">
-        <v>6</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I126" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127">
-        <v>-54</v>
-      </c>
-      <c r="B127">
-        <v>-64</v>
-      </c>
-      <c r="C127">
-        <v>-14</v>
-      </c>
-      <c r="D127" t="s">
-        <v>40</v>
-      </c>
-      <c r="E127" s="2">
-        <v>79</v>
-      </c>
-      <c r="F127" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I127" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128">
-        <v>-54</v>
-      </c>
-      <c r="B128">
-        <v>-40</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>40</v>
-      </c>
-      <c r="E128" s="2">
-        <v>79</v>
-      </c>
-      <c r="F128" t="s">
-        <v>6</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I128" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129">
-        <v>2</v>
-      </c>
-      <c r="B129">
-        <v>-14</v>
-      </c>
-      <c r="C129">
-        <v>62</v>
-      </c>
-      <c r="D129" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" s="2">
-        <v>40</v>
-      </c>
-      <c r="F129" t="s">
-        <v>6</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I129" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="1">
-        <v>2</v>
-      </c>
-      <c r="B130" s="1">
-        <v>-12</v>
-      </c>
-      <c r="C130" s="1">
-        <v>50</v>
-      </c>
-      <c r="D130" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" s="2">
-        <v>40</v>
-      </c>
-      <c r="F130" t="s">
-        <v>6</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I130" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="1">
-        <v>-38</v>
-      </c>
-      <c r="B131" s="1">
-        <v>-78</v>
-      </c>
-      <c r="C131" s="1">
-        <v>32</v>
-      </c>
-      <c r="D131" t="s">
-        <v>21</v>
-      </c>
-      <c r="E131" s="2">
-        <v>40</v>
-      </c>
-      <c r="F131" t="s">
-        <v>6</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I131" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="1">
-        <v>-32</v>
-      </c>
-      <c r="B132" s="1">
-        <v>-36</v>
-      </c>
-      <c r="C132" s="1">
-        <v>-22</v>
-      </c>
-      <c r="D132" t="s">
-        <v>21</v>
-      </c>
-      <c r="E132" s="2">
-        <v>40</v>
-      </c>
-      <c r="F132" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I132" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1">
-        <v>-32</v>
-      </c>
-      <c r="B133" s="1">
-        <v>-22</v>
-      </c>
-      <c r="C133" s="1">
-        <v>64</v>
-      </c>
-      <c r="D133" t="s">
-        <v>21</v>
-      </c>
-      <c r="E133" s="2">
-        <v>40</v>
-      </c>
-      <c r="F133" t="s">
-        <v>6</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I133" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="1">
-        <v>-4</v>
-      </c>
-      <c r="B134" s="1">
-        <v>-58</v>
-      </c>
-      <c r="C134" s="1">
-        <v>24</v>
-      </c>
-      <c r="D134" t="s">
-        <v>21</v>
-      </c>
-      <c r="E134" s="2">
-        <v>40</v>
-      </c>
-      <c r="F134" t="s">
-        <v>6</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I134" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="1">
-        <v>44</v>
-      </c>
-      <c r="B135" s="1">
-        <v>-70</v>
-      </c>
-      <c r="C135" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D135" t="s">
-        <v>21</v>
-      </c>
-      <c r="E135" s="2">
-        <v>40</v>
-      </c>
-      <c r="F135" t="s">
-        <v>6</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I135" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="1">
-        <v>42</v>
-      </c>
-      <c r="B136" s="1">
-        <v>-56</v>
-      </c>
-      <c r="C136" s="1">
-        <v>18</v>
-      </c>
-      <c r="D136" t="s">
-        <v>21</v>
-      </c>
-      <c r="E136" s="2">
-        <v>40</v>
-      </c>
-      <c r="F136" t="s">
-        <v>6</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I136" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="1">
-        <v>52</v>
-      </c>
-      <c r="B137" s="1">
-        <v>-62</v>
-      </c>
-      <c r="C137" s="1">
-        <v>16</v>
-      </c>
-      <c r="D137" t="s">
-        <v>21</v>
-      </c>
-      <c r="E137" s="2">
-        <v>40</v>
-      </c>
-      <c r="F137" t="s">
-        <v>6</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I137" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1">
-        <v>44</v>
-      </c>
-      <c r="B138" s="1">
-        <v>-68</v>
-      </c>
-      <c r="C138" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D138" t="s">
-        <v>21</v>
-      </c>
-      <c r="E138" s="2">
-        <v>40</v>
-      </c>
-      <c r="F138" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I138" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="1">
-        <v>26</v>
-      </c>
-      <c r="B139" s="1">
-        <v>-62</v>
-      </c>
-      <c r="C139" s="1">
-        <v>-8</v>
-      </c>
-      <c r="D139" t="s">
-        <v>21</v>
-      </c>
-      <c r="E139" s="2">
-        <v>40</v>
-      </c>
-      <c r="F139" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I139" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="1">
-        <v>20</v>
-      </c>
-      <c r="B140" s="1">
-        <v>-60</v>
-      </c>
-      <c r="C140" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D140" t="s">
-        <v>21</v>
-      </c>
-      <c r="E140" s="2">
-        <v>40</v>
-      </c>
-      <c r="F140" t="s">
-        <v>6</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I140" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1">
-        <v>2</v>
-      </c>
-      <c r="B141" s="1">
-        <v>-8</v>
-      </c>
-      <c r="C141" s="1">
-        <v>48</v>
-      </c>
-      <c r="D141" t="s">
-        <v>21</v>
-      </c>
-      <c r="E141" s="2">
-        <v>40</v>
-      </c>
-      <c r="F141" t="s">
-        <v>6</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I141" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="1">
-        <v>0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>-12</v>
-      </c>
-      <c r="C142" s="1">
-        <v>60</v>
-      </c>
-      <c r="D142" t="s">
-        <v>21</v>
-      </c>
-      <c r="E142" s="2">
-        <v>40</v>
-      </c>
-      <c r="F142" t="s">
-        <v>6</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I142" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1">
-        <v>2</v>
-      </c>
-      <c r="B143" s="1">
-        <v>-10</v>
-      </c>
-      <c r="C143" s="1">
-        <v>48</v>
-      </c>
-      <c r="D143" t="s">
-        <v>21</v>
-      </c>
-      <c r="E143" s="2">
-        <v>40</v>
-      </c>
-      <c r="F143" t="s">
-        <v>6</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I143" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="1">
-        <v>-24</v>
-      </c>
-      <c r="B144" s="1">
-        <v>-44</v>
-      </c>
-      <c r="C144" s="1">
-        <v>-14</v>
-      </c>
-      <c r="D144" t="s">
-        <v>21</v>
-      </c>
-      <c r="E144" s="2">
-        <v>40</v>
-      </c>
-      <c r="F144" t="s">
-        <v>6</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I144" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="1">
-        <v>24</v>
-      </c>
-      <c r="B145" s="1">
-        <v>38</v>
-      </c>
-      <c r="C145" s="1">
-        <v>28</v>
-      </c>
-      <c r="D145" t="s">
-        <v>21</v>
-      </c>
-      <c r="E145" s="2">
-        <v>40</v>
-      </c>
-      <c r="F145" t="s">
-        <v>6</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I145" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="1">
-        <v>18</v>
-      </c>
-      <c r="B146" s="1">
-        <v>-54</v>
-      </c>
-      <c r="C146" s="1">
-        <v>50</v>
-      </c>
-      <c r="D146" t="s">
-        <v>21</v>
-      </c>
-      <c r="E146" s="2">
-        <v>40</v>
-      </c>
-      <c r="F146" t="s">
-        <v>6</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I146" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="1">
-        <v>-6</v>
-      </c>
-      <c r="B147" s="1">
-        <v>-36</v>
-      </c>
-      <c r="C147" s="1">
-        <v>50</v>
-      </c>
-      <c r="D147" t="s">
-        <v>21</v>
-      </c>
-      <c r="E147" s="2">
-        <v>40</v>
-      </c>
-      <c r="F147" t="s">
-        <v>6</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I147" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="1">
-        <v>-30</v>
-      </c>
-      <c r="B148" s="1">
-        <v>-16</v>
-      </c>
-      <c r="C148" s="1">
-        <v>60</v>
-      </c>
-      <c r="D148" t="s">
-        <v>21</v>
-      </c>
-      <c r="E148" s="2">
-        <v>40</v>
-      </c>
-      <c r="F148" t="s">
-        <v>6</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I148" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="1">
-        <v>48</v>
-      </c>
-      <c r="B149" s="1">
-        <v>-64</v>
-      </c>
-      <c r="C149" s="1">
-        <v>14</v>
-      </c>
-      <c r="D149" t="s">
-        <v>21</v>
-      </c>
-      <c r="E149" s="2">
-        <v>40</v>
-      </c>
-      <c r="F149" t="s">
-        <v>6</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I149" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="1">
-        <v>-4</v>
-      </c>
-      <c r="B150" s="1">
-        <v>-40</v>
-      </c>
-      <c r="C150" s="1">
-        <v>52</v>
-      </c>
-      <c r="D150" t="s">
-        <v>21</v>
-      </c>
-      <c r="E150" s="2">
-        <v>40</v>
-      </c>
-      <c r="F150" t="s">
-        <v>6</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I150" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="1">
-        <v>-22</v>
-      </c>
-      <c r="B151" s="1">
-        <v>-44</v>
-      </c>
-      <c r="C151" s="1">
-        <v>-14</v>
-      </c>
-      <c r="D151" t="s">
-        <v>21</v>
-      </c>
-      <c r="E151" s="2">
-        <v>40</v>
-      </c>
-      <c r="F151" t="s">
-        <v>6</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I151" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="1">
-        <v>-24</v>
-      </c>
-      <c r="B152" s="1">
-        <v>-66</v>
-      </c>
-      <c r="C152" s="1">
-        <v>-12</v>
-      </c>
-      <c r="D152" t="s">
-        <v>21</v>
-      </c>
-      <c r="E152" s="2">
-        <v>40</v>
-      </c>
-      <c r="F152" t="s">
-        <v>6</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I152" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="1">
-        <v>-38</v>
-      </c>
-      <c r="B153" s="1">
-        <v>-76</v>
-      </c>
-      <c r="C153" s="1">
-        <v>30</v>
-      </c>
-      <c r="D153" t="s">
-        <v>21</v>
-      </c>
-      <c r="E153" s="2">
-        <v>40</v>
-      </c>
-      <c r="F153" t="s">
-        <v>6</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I153" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="1">
-        <v>0</v>
-      </c>
-      <c r="B154" s="1">
-        <v>-12</v>
-      </c>
-      <c r="C154" s="1">
-        <v>48</v>
-      </c>
-      <c r="D154" t="s">
-        <v>21</v>
-      </c>
-      <c r="E154" s="2">
-        <v>40</v>
-      </c>
-      <c r="F154" t="s">
-        <v>6</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I154" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="1">
-        <v>-46</v>
-      </c>
-      <c r="B155" s="1">
-        <v>26</v>
-      </c>
-      <c r="C155" s="1">
-        <v>28</v>
-      </c>
-      <c r="D155" t="s">
-        <v>22</v>
-      </c>
-      <c r="E155" s="2">
-        <v>40</v>
-      </c>
-      <c r="F155" t="s">
-        <v>6</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I155" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="1">
-        <v>-48</v>
-      </c>
-      <c r="B156" s="1">
-        <v>22</v>
-      </c>
-      <c r="C156" s="1">
-        <v>6</v>
-      </c>
-      <c r="D156" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" s="2">
-        <v>40</v>
-      </c>
-      <c r="F156" t="s">
-        <v>6</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I156" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="1">
-        <v>44</v>
-      </c>
-      <c r="B157" s="1">
-        <v>24</v>
-      </c>
-      <c r="C157" s="1">
-        <v>26</v>
-      </c>
-      <c r="D157" t="s">
-        <v>23</v>
-      </c>
-      <c r="E157" s="2">
-        <v>40</v>
-      </c>
-      <c r="F157" t="s">
-        <v>6</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I157" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="1">
-        <v>45</v>
-      </c>
-      <c r="B158" s="1">
-        <v>20</v>
-      </c>
-      <c r="C158" s="1">
-        <v>0</v>
-      </c>
-      <c r="D158" t="s">
-        <v>23</v>
-      </c>
-      <c r="E158" s="2">
-        <v>40</v>
-      </c>
-      <c r="F158" t="s">
-        <v>6</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I158" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="1">
-        <v>-2</v>
-      </c>
-      <c r="B159" s="1">
-        <v>38</v>
-      </c>
-      <c r="C159" s="1">
-        <v>12</v>
-      </c>
-      <c r="D159" t="s">
-        <v>23</v>
-      </c>
-      <c r="E159" s="2">
-        <v>40</v>
-      </c>
-      <c r="F159" t="s">
-        <v>6</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I159" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160">
-        <v>-16</v>
-      </c>
-      <c r="B160">
-        <v>-46</v>
-      </c>
-      <c r="C160">
-        <v>2</v>
-      </c>
-      <c r="D160" t="s">
-        <v>25</v>
-      </c>
-      <c r="E160" s="2">
-        <v>137</v>
-      </c>
-      <c r="F160" t="s">
-        <v>6</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I160" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161">
-        <v>44</v>
-      </c>
-      <c r="B161">
-        <v>-36</v>
-      </c>
-      <c r="C161">
-        <v>10</v>
-      </c>
-      <c r="D161" t="s">
-        <v>25</v>
-      </c>
-      <c r="E161" s="2">
-        <v>137</v>
-      </c>
-      <c r="F161" t="s">
-        <v>6</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I161" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162">
-        <v>46</v>
-      </c>
-      <c r="B162">
-        <v>22</v>
-      </c>
-      <c r="C162">
-        <v>-18</v>
-      </c>
-      <c r="D162" t="s">
-        <v>25</v>
-      </c>
-      <c r="E162" s="2">
-        <v>137</v>
-      </c>
-      <c r="F162" t="s">
-        <v>6</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I162" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163">
-        <v>-10</v>
-      </c>
-      <c r="B163">
-        <v>-82</v>
-      </c>
-      <c r="C163">
-        <v>22</v>
-      </c>
-      <c r="D163" t="s">
-        <v>25</v>
-      </c>
-      <c r="E163" s="2">
-        <v>137</v>
-      </c>
-      <c r="F163" t="s">
-        <v>6</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I163" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164">
-        <v>-4</v>
-      </c>
-      <c r="B164">
-        <v>-58</v>
-      </c>
-      <c r="C164">
-        <v>32</v>
-      </c>
-      <c r="D164" t="s">
-        <v>25</v>
-      </c>
-      <c r="E164" s="2">
-        <v>137</v>
-      </c>
-      <c r="F164" t="s">
-        <v>6</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I164" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165">
-        <v>-18</v>
-      </c>
-      <c r="B165">
-        <v>-80</v>
-      </c>
-      <c r="C165">
-        <v>-2</v>
-      </c>
-      <c r="D165" t="s">
-        <v>25</v>
-      </c>
-      <c r="E165" s="2">
-        <v>137</v>
-      </c>
-      <c r="F165" t="s">
-        <v>6</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I165" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166">
-        <v>-62</v>
-      </c>
-      <c r="B166">
-        <v>-40</v>
-      </c>
-      <c r="C166">
-        <v>28</v>
-      </c>
-      <c r="D166" t="s">
-        <v>25</v>
-      </c>
-      <c r="E166" s="2">
-        <v>137</v>
-      </c>
-      <c r="F166" t="s">
-        <v>6</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I166" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167">
-        <v>22</v>
-      </c>
-      <c r="B167">
-        <v>-12</v>
-      </c>
-      <c r="C167">
-        <v>68</v>
-      </c>
-      <c r="D167" t="s">
-        <v>25</v>
-      </c>
-      <c r="E167" s="2">
-        <v>137</v>
-      </c>
-      <c r="F167" t="s">
-        <v>6</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I167" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168">
-        <v>54</v>
-      </c>
-      <c r="B168">
-        <v>0</v>
-      </c>
-      <c r="C168">
-        <v>20</v>
-      </c>
-      <c r="D168" t="s">
-        <v>25</v>
-      </c>
-      <c r="E168" s="2">
-        <v>137</v>
-      </c>
-      <c r="F168" t="s">
-        <v>6</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I168" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169">
-        <v>-42</v>
-      </c>
-      <c r="B169">
-        <v>-70</v>
-      </c>
-      <c r="C169">
-        <v>10</v>
-      </c>
-      <c r="D169" t="s">
-        <v>25</v>
-      </c>
-      <c r="E169" s="2">
-        <v>137</v>
-      </c>
-      <c r="F169" t="s">
-        <v>6</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I169" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="A170">
-        <v>26</v>
-      </c>
-      <c r="B170">
-        <v>-40</v>
-      </c>
-      <c r="C170">
-        <v>66</v>
-      </c>
-      <c r="D170" t="s">
-        <v>25</v>
-      </c>
-      <c r="E170" s="2">
-        <v>137</v>
-      </c>
-      <c r="F170" t="s">
-        <v>6</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I170" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171">
-        <v>-66</v>
-      </c>
-      <c r="B171">
-        <v>-20</v>
-      </c>
-      <c r="C171">
-        <v>26</v>
-      </c>
-      <c r="D171" t="s">
-        <v>25</v>
-      </c>
-      <c r="E171" s="2">
-        <v>137</v>
-      </c>
-      <c r="F171" t="s">
-        <v>6</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I171" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="A172">
-        <v>-8</v>
-      </c>
-      <c r="B172">
-        <v>-56</v>
-      </c>
-      <c r="C172">
-        <v>26</v>
-      </c>
-      <c r="D172" t="s">
-        <v>25</v>
-      </c>
-      <c r="E172" s="2">
-        <v>137</v>
-      </c>
-      <c r="F172" t="s">
-        <v>6</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I172" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="A173">
-        <v>22</v>
-      </c>
-      <c r="B173">
-        <v>28</v>
-      </c>
-      <c r="C173">
-        <v>42</v>
-      </c>
-      <c r="D173" t="s">
-        <v>25</v>
-      </c>
-      <c r="E173" s="2">
-        <v>137</v>
-      </c>
-      <c r="F173" t="s">
-        <v>6</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I173" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174">
-        <v>46</v>
-      </c>
-      <c r="B174">
-        <v>-32</v>
-      </c>
-      <c r="C174">
-        <v>66</v>
-      </c>
-      <c r="D174" t="s">
-        <v>25</v>
-      </c>
-      <c r="E174" s="2">
-        <v>137</v>
-      </c>
-      <c r="F174" t="s">
-        <v>6</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I174" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
-      <c r="A175">
-        <v>42</v>
-      </c>
-      <c r="B175">
-        <v>-22</v>
-      </c>
-      <c r="C175">
-        <v>44</v>
-      </c>
-      <c r="D175" t="s">
-        <v>25</v>
-      </c>
-      <c r="E175" s="2">
-        <v>137</v>
-      </c>
-      <c r="F175" t="s">
-        <v>6</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I175" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176">
-        <v>8</v>
-      </c>
-      <c r="B176">
-        <v>54</v>
-      </c>
-      <c r="C176">
-        <v>28</v>
-      </c>
-      <c r="D176" t="s">
-        <v>25</v>
-      </c>
-      <c r="E176" s="2">
-        <v>137</v>
-      </c>
-      <c r="F176" t="s">
-        <v>6</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I176" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177">
-        <v>-44</v>
-      </c>
-      <c r="B177">
-        <v>-70</v>
-      </c>
-      <c r="C177">
-        <v>40</v>
-      </c>
-      <c r="D177" t="s">
-        <v>25</v>
-      </c>
-      <c r="E177" s="2">
-        <v>137</v>
-      </c>
-      <c r="F177" t="s">
-        <v>6</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I177" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="1">
-        <v>16</v>
-      </c>
-      <c r="B178" s="1">
-        <v>-34</v>
-      </c>
-      <c r="C178" s="1">
-        <v>46</v>
-      </c>
-      <c r="D178" t="s">
-        <v>28</v>
-      </c>
-      <c r="E178" s="2">
-        <v>67</v>
-      </c>
-      <c r="F178" t="s">
-        <v>6</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I178" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="1">
-        <v>30</v>
-      </c>
-      <c r="B179" s="1">
-        <v>-44</v>
-      </c>
-      <c r="C179" s="1">
-        <v>42</v>
-      </c>
-      <c r="D179" t="s">
-        <v>28</v>
-      </c>
-      <c r="E179" s="2">
-        <v>67</v>
-      </c>
-      <c r="F179" t="s">
-        <v>6</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I179" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="1">
-        <v>14</v>
-      </c>
-      <c r="B180" s="1">
-        <v>-26</v>
-      </c>
-      <c r="C180" s="1">
-        <v>44</v>
-      </c>
-      <c r="D180" t="s">
-        <v>29</v>
-      </c>
-      <c r="E180" s="2">
-        <v>67</v>
-      </c>
-      <c r="F180" t="s">
-        <v>6</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I180" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="1">
-        <v>24</v>
-      </c>
-      <c r="B181" s="1">
-        <v>4</v>
-      </c>
-      <c r="C181" s="1">
-        <v>56</v>
-      </c>
-      <c r="D181" t="s">
-        <v>29</v>
-      </c>
-      <c r="E181" s="2">
-        <v>67</v>
-      </c>
-      <c r="F181" t="s">
-        <v>6</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I181" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="1">
-        <v>26</v>
-      </c>
-      <c r="B182" s="1">
-        <v>-8</v>
-      </c>
-      <c r="C182" s="1">
-        <v>72</v>
-      </c>
-      <c r="D182" t="s">
-        <v>29</v>
-      </c>
-      <c r="E182" s="2">
-        <v>67</v>
-      </c>
-      <c r="F182" t="s">
-        <v>6</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I182" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="1">
-        <v>26</v>
-      </c>
-      <c r="B183" s="1">
-        <v>8</v>
-      </c>
-      <c r="C183" s="1">
-        <v>60</v>
-      </c>
-      <c r="D183" t="s">
-        <v>29</v>
-      </c>
-      <c r="E183" s="2">
-        <v>67</v>
-      </c>
-      <c r="F183" t="s">
-        <v>6</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I183" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I185">
-    <sortCondition ref="I2"/>
-  </sortState>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAB2869-6E4A-664F-9AA1-D339CEC16B1A}">
-  <dimension ref="A1:I48"/>
-  <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2">
-        <v>-2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>44</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-26</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>-44</v>
-      </c>
-      <c r="B5" s="1">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>-46</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-70</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2">
-        <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-52</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-81</v>
-      </c>
-      <c r="C9" s="1">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>-38</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-56</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="2">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>-38</v>
-      </c>
-      <c r="B11">
-        <v>52</v>
-      </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2">
-        <v>137</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>-92</v>
-      </c>
-      <c r="C12">
-        <v>-12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2">
-        <v>137</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>-90</v>
-      </c>
-      <c r="C13">
-        <v>-8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2">
-        <v>137</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2">
-        <v>137</v>
-      </c>
-      <c r="F14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>40</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>34</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2">
-        <v>137</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>-38</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2">
-        <v>137</v>
-      </c>
-      <c r="F16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>-10</v>
-      </c>
-      <c r="B17">
-        <v>-96</v>
-      </c>
-      <c r="C17">
-        <v>-4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="2">
-        <v>137</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>-74</v>
-      </c>
-      <c r="C18">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2">
-        <v>137</v>
-      </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19">
-        <v>36</v>
-      </c>
-      <c r="B19">
-        <v>36</v>
-      </c>
-      <c r="C19">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2">
-        <v>137</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20">
-        <v>46</v>
-      </c>
-      <c r="B20">
-        <v>-78</v>
-      </c>
-      <c r="C20">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2">
-        <v>137</v>
-      </c>
-      <c r="F20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>-40</v>
-      </c>
-      <c r="B21" s="1">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="2">
-        <v>12</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1">
-        <v>-48</v>
-      </c>
-      <c r="B22" s="1">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1">
-        <v>28</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2">
-        <v>12</v>
-      </c>
-      <c r="F22" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1">
-        <v>-34</v>
-      </c>
-      <c r="B23" s="1">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="2">
-        <v>12</v>
-      </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1">
-        <v>-36</v>
-      </c>
-      <c r="B24" s="1">
-        <v>-54</v>
-      </c>
-      <c r="C24" s="1">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="2">
-        <v>12</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1">
-        <v>-28</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-52</v>
-      </c>
-      <c r="C25" s="1">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="2">
-        <v>12</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1">
-        <v>30</v>
-      </c>
-      <c r="B26" s="1">
-        <v>-52</v>
-      </c>
-      <c r="C26" s="1">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="2">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1">
-        <v>-26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>-62</v>
-      </c>
-      <c r="C27" s="1">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="2">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1">
-        <v>-24</v>
-      </c>
-      <c r="B28" s="1">
-        <v>-80</v>
-      </c>
-      <c r="C28" s="1">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="2">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1">
-        <v>-76</v>
-      </c>
-      <c r="C29" s="1">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="2">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1">
-        <v>-30</v>
-      </c>
-      <c r="B30" s="1">
-        <v>-72</v>
-      </c>
-      <c r="C30" s="1">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="2">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="1">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1">
-        <v>-66</v>
-      </c>
-      <c r="C31" s="1">
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="2">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1">
-        <v>-6</v>
-      </c>
-      <c r="B32" s="1">
-        <v>-84</v>
-      </c>
-      <c r="C32" s="1">
-        <v>28</v>
-      </c>
-      <c r="D32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="2">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1">
-        <v>-10</v>
-      </c>
-      <c r="B33" s="1">
-        <v>-80</v>
-      </c>
-      <c r="C33" s="1">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="2">
-        <v>12</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1">
-        <v>-6</v>
-      </c>
-      <c r="B34" s="1">
-        <v>-102</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="2">
-        <v>12</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1">
-        <v>-18</v>
-      </c>
-      <c r="B35" s="1">
-        <v>-88</v>
-      </c>
-      <c r="C35" s="1">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="2">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="1">
-        <v>-26</v>
-      </c>
-      <c r="B36" s="1">
-        <v>-84</v>
-      </c>
-      <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="2">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="1">
-        <v>-12</v>
-      </c>
-      <c r="B37" s="1">
-        <v>-66</v>
-      </c>
-      <c r="C37" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="2">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1">
-        <v>-26</v>
-      </c>
-      <c r="B38" s="1">
-        <v>-80</v>
-      </c>
-      <c r="C38" s="1">
-        <v>-8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="2">
-        <v>12</v>
-      </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1">
-        <v>-4</v>
-      </c>
-      <c r="B39" s="1">
-        <v>-94</v>
-      </c>
-      <c r="C39" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="2">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1">
-        <v>22</v>
-      </c>
-      <c r="B40" s="1">
-        <v>-60</v>
-      </c>
-      <c r="C40" s="1">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="2">
-        <v>12</v>
-      </c>
-      <c r="F40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1">
-        <v>-30</v>
-      </c>
-      <c r="B41" s="1">
-        <v>-66</v>
-      </c>
-      <c r="C41" s="1">
-        <v>-16</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="2">
-        <v>12</v>
-      </c>
-      <c r="F41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="1">
-        <v>-16</v>
-      </c>
-      <c r="B42" s="1">
-        <v>-66</v>
-      </c>
-      <c r="C42" s="1">
-        <v>-20</v>
-      </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="2">
-        <v>12</v>
-      </c>
-      <c r="F42" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1">
-        <v>-40</v>
-      </c>
-      <c r="B43" s="1">
-        <v>14</v>
-      </c>
-      <c r="C43" s="1">
-        <v>-8</v>
-      </c>
-      <c r="D43" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="2">
-        <v>67</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1">
-        <v>-28</v>
-      </c>
-      <c r="B44" s="1">
-        <v>8</v>
-      </c>
-      <c r="C44" s="1">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="2">
-        <v>67</v>
-      </c>
-      <c r="F44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1">
-        <v>-24</v>
-      </c>
-      <c r="B45" s="1">
-        <v>8</v>
-      </c>
-      <c r="C45" s="1">
-        <v>10</v>
-      </c>
-      <c r="D45" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="2">
-        <v>67</v>
-      </c>
-      <c r="F45" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1">
-        <v>-16</v>
-      </c>
-      <c r="B46" s="1">
-        <v>44</v>
-      </c>
-      <c r="C46" s="1">
-        <v>52</v>
-      </c>
-      <c r="D46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="2">
-        <v>67</v>
-      </c>
-      <c r="F46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1">
-        <v>-18</v>
-      </c>
-      <c r="B47" s="1">
-        <v>30</v>
-      </c>
-      <c r="C47" s="1">
-        <v>52</v>
-      </c>
-      <c r="D47" t="s">
-        <v>29</v>
-      </c>
-      <c r="E47" s="2">
-        <v>67</v>
-      </c>
-      <c r="F47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1">
-        <v>-4</v>
-      </c>
-      <c r="B48" s="1">
-        <v>44</v>
-      </c>
-      <c r="C48" s="1">
-        <v>42</v>
-      </c>
-      <c r="D48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="2">
-        <v>67</v>
-      </c>
-      <c r="F48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>